--- a/excels/SkillTable.xlsx
+++ b/excels/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitps\openglGame\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6AAC3-F827-45F5-B476-95535BC988D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C5B95-1757-4A7A-A250-20A8822F7E82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{258A6D13-1FEB-47A3-AB0E-22A9F42F4A0F}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/excels/SkillTable.xlsx
+++ b/excels/SkillTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitps\openglGame\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7C5B95-1757-4A7A-A250-20A8822F7E82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A6AAC3-F827-45F5-B476-95535BC988D5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{258A6D13-1FEB-47A3-AB0E-22A9F42F4A0F}"/>
   </bookViews>
@@ -644,7 +644,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
